--- a/resources/test_data/excel/dev_test_data.xlsx
+++ b/resources/test_data/excel/dev_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Key</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>Faded Short Sleeve T-shirts</t>
+  </si>
+  <si>
+    <t>kushaniEmail</t>
+  </si>
+  <si>
+    <t>kushaniPassword</t>
+  </si>
+  <si>
+    <t>kushani.karunarathne@mailinator.com</t>
+  </si>
+  <si>
+    <t>1qaz!QAZ</t>
+  </si>
+  <si>
+    <t>eveningdDress</t>
+  </si>
+  <si>
+    <t>Printed Chiffon Dress</t>
   </si>
 </sst>
 </file>
@@ -1413,16 +1431,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1454,15 +1472,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:2" ht="15" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
     </row>
@@ -1472,7 +1498,6 @@
     <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1489,16 +1514,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1514,31 +1539,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/resources/test_data/excel/dev_test_data.xlsx
+++ b/resources/test_data/excel/dev_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1513,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
